--- a/3.Subir_datos/2.Fechas_pagadurias/Fecha_pagaduria.xlsx
+++ b/3.Subir_datos/2.Fechas_pagadurias/Fecha_pagaduria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Documents\GitHub\2025\Agente_simuldor_libranza\3.Subir_datos\2.Fechas_pagadurias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Documents\GitHub\2025\Agente_simuldor_libranza\Agente_simuldor_libranza\3.Subir_datos\2.Fechas_pagadurias\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -186,12 +186,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -206,11 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,15 +504,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.54296875" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -527,358 +534,362 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
-        <v>45841</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>45841</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
-        <v>45842</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1">
-        <v>45844</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1">
-        <v>45844</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>45844</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
-        <v>45844</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>45844</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>45844</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>45844</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>45848</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>45848</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
-        <v>45848</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
-        <v>45852</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
-        <v>45852</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>45852</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
-        <v>45853</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>45853</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
-        <v>45855</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>45855</v>
+        <v>45839</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1">
-        <v>45856</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>45856</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
-        <v>45858</v>
+        <v>45842</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3">
-        <v>45858</v>
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45844</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1">
-        <v>45839</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>45839</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1">
-        <v>45839</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1">
-        <v>45839</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
-        <v>45839</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1">
-        <v>45839</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1">
-        <v>45839</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
-        <v>45839</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1">
-        <v>45839</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1">
-        <v>45839</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1">
-        <v>45839</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1">
-        <v>45839</v>
+        <v>45852</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1">
-        <v>45839</v>
+        <v>45853</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1">
-        <v>45839</v>
+        <v>45853</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1">
-        <v>45839</v>
+        <v>45855</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>45839</v>
+        <v>45855</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1">
-        <v>45839</v>
+        <v>45856</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1">
-        <v>45839</v>
+        <v>45856</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1">
-        <v>45839</v>
+        <v>45858</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="1">
-        <v>45839</v>
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45858</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A47"/>
+  <autoFilter ref="A1:B47">
+    <sortState ref="A2:B47">
+      <sortCondition ref="B1:B47"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3.Subir_datos/2.Fechas_pagadurias/Fecha_pagaduria.xlsx
+++ b/3.Subir_datos/2.Fechas_pagadurias/Fecha_pagaduria.xlsx
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t>COLPENSIONES - ADMINISTRADORA COLOMBIANA DE PENSIONES</t>
-  </si>
-  <si>
     <t>CONSORCIO FOPEP</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>FECHA</t>
+  </si>
+  <si>
+    <t>COLPENSIONES - ADMINISTRADORA COLOMBIANA DE PENSIONES1</t>
   </si>
 </sst>
 </file>
@@ -510,15 +510,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>45839</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>45839</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>45839</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1">
         <v>45839</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>45839</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>45839</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1">
         <v>45839</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>45839</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <v>45839</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>45839</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>45839</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>45839</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>45839</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
         <v>45839</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>45839</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1">
         <v>45839</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>45839</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>45839</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>45839</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>45839</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>45839</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>45839</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
         <v>45841</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1">
         <v>45841</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1">
         <v>45842</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
         <v>45844</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
         <v>45844</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1">
         <v>45844</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1">
         <v>45844</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1">
         <v>45844</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1">
         <v>45844</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1">
         <v>45844</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1">
         <v>45848</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>45848</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
         <v>45848</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1">
         <v>45852</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1">
         <v>45852</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1">
         <v>45852</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1">
         <v>45853</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="1">
         <v>45853</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
         <v>45855</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1">
         <v>45855</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1">
         <v>45856</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="1">
         <v>45856</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1">
         <v>45858</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" s="3">
         <v>45858</v>

--- a/3.Subir_datos/2.Fechas_pagadurias/Fecha_pagaduria.xlsx
+++ b/3.Subir_datos/2.Fechas_pagadurias/Fecha_pagaduria.xlsx
@@ -170,7 +170,7 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t>COLPENSIONES - ADMINISTRADORA COLOMBIANA DE PENSIONES1</t>
+    <t>C</t>
   </si>
 </sst>
 </file>

--- a/3.Subir_datos/2.Fechas_pagadurias/Fecha_pagaduria.xlsx
+++ b/3.Subir_datos/2.Fechas_pagadurias/Fecha_pagaduria.xlsx
@@ -170,7 +170,7 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t>C</t>
+    <t>COLPENSIONES - ADMINISTRADORA COLOMBIANA DE PENSIONES</t>
   </si>
 </sst>
 </file>

--- a/3.Subir_datos/2.Fechas_pagadurias/Fecha_pagaduria.xlsx
+++ b/3.Subir_datos/2.Fechas_pagadurias/Fecha_pagaduria.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Documents\GitHub\2025\Agente_simuldor_libranza\Agente_simuldor_libranza\3.Subir_datos\2.Fechas_pagadurias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lizeth.latorre\Desktop\Coordinador Cartera\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF9ECDE4-7E2F-4BCE-A711-A9B42D0016B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$47</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -176,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,12 +224,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,399 +514,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B3" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B4" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B5" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B6" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B7" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B8" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B9" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B10" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B11" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B12" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B13" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B14" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B15" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B16" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B17" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B18" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B19" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B20" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B21" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B22" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B23" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="1">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B24" s="3">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="1">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B25" s="3">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1">
-        <v>45842</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B26" s="3">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1">
-        <v>45844</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B27" s="3">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1">
-        <v>45844</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B28" s="3">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="1">
-        <v>45844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B29" s="3">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="1">
-        <v>45844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B30" s="3">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="1">
-        <v>45844</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B31" s="3">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="1">
-        <v>45844</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B32" s="3">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="1">
-        <v>45844</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B33" s="3">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="1">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B34" s="3">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="1">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B35" s="3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="1">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B36" s="3">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="1">
-        <v>45852</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B37" s="3">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="1">
-        <v>45852</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B38" s="3">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="1">
-        <v>45852</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="B39" s="3">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="1">
-        <v>45853</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B40" s="3">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="1">
-        <v>45853</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B41" s="3">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="1">
-        <v>45855</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B42" s="3">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="1">
-        <v>45855</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B43" s="3">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1">
-        <v>45856</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B44" s="3">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="1">
-        <v>45856</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B45" s="3">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="1">
-        <v>45858</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="3">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="3">
-        <v>45858</v>
+        <v>45890</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B47">
-    <sortState ref="A2:B47">
-      <sortCondition ref="B1:B47"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:B47" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>